--- a/курсовая.xlsx
+++ b/курсовая.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\University\7 сем\generators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7FFC18-DFD9-4AA0-A8CF-7B1B642B3D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C67A8CC-7754-49D8-BA75-3FB5897E2EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры транзисторов" sheetId="2" r:id="rId1"/>
@@ -937,18 +937,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -968,25 +956,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1001,12 +971,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1016,25 +980,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1043,47 +989,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1091,24 +998,6 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1119,6 +1008,117 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1145,19 +1145,19 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1493,7 +1493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFE3A3B-CB19-4E17-9917-0FDE17B07041}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -1505,62 +1505,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="22"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="45"/>
     </row>
     <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="15" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="3">
@@ -1592,7 +1592,7 @@
       <c r="I3" s="2">
         <v>60</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="9">
         <v>12</v>
       </c>
       <c r="K3" s="1">
@@ -1607,7 +1607,7 @@
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
-      <c r="B4" s="12"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1615,7 +1615,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="14"/>
+      <c r="J4" s="10"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="6"/>
@@ -1637,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7CFAA56-7F2D-4F58-B7CB-AE9DE648F8FC}">
   <dimension ref="B1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1648,130 +1648,130 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25" t="s">
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25" t="s">
+      <c r="K2" s="51"/>
+      <c r="L2" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25" t="s">
+      <c r="M2" s="51"/>
+      <c r="N2" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="26"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="52"/>
     </row>
     <row r="3" spans="2:17" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="N3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="O3" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="27" t="s">
+      <c r="P3" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="29">
+      <c r="B4" s="19">
         <v>2</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="19">
         <v>4</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="19">
         <v>2</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="19">
         <v>5</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="19">
         <v>20</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="19">
         <v>6</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="19">
         <v>1</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="19">
         <v>535</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="M4" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="N4" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="29">
+      <c r="O4" s="19">
         <v>1.5</v>
       </c>
-      <c r="P4" s="29">
+      <c r="P4" s="19">
         <v>5</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="Q4" s="20">
         <v>2</v>
       </c>
     </row>
@@ -1896,692 +1896,692 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="24"/>
-    <col min="3" max="3" width="11.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="8.88671875" style="24"/>
-    <col min="8" max="8" width="12.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.88671875" style="24"/>
-    <col min="12" max="12" width="10.109375" style="24" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="24"/>
+    <col min="1" max="2" width="8.88671875" style="16"/>
+    <col min="3" max="3" width="11.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="8.88671875" style="16"/>
+    <col min="8" max="8" width="12.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.88671875" style="16"/>
+    <col min="12" max="12" width="10.109375" style="16" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="45"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="46"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="47" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="25">
         <f>0.2*'Параметры транзисторов'!L3</f>
         <v>1.0000000000000002E-2</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="N4" s="31" t="s">
+      <c r="E4" s="28"/>
+      <c r="N4" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="16">
         <f>0.2</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="37">
+      <c r="A5" s="21"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="25">
         <f>C4*1000</f>
         <v>10.000000000000002</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="46"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="45"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="46"/>
-      <c r="N6" s="24" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="28"/>
+      <c r="N6" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="16">
         <f>1*10^-3/O4</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="31">
         <f>0.5*'Параметры транзисторов'!J3</f>
         <v>6</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="O7" s="24">
+      <c r="E7" s="32"/>
+      <c r="O7" s="16">
         <f>O6*1000</f>
         <v>5</v>
       </c>
-      <c r="P7" s="24" t="s">
+      <c r="P7" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="31"/>
+      <c r="B8" s="21"/>
     </row>
     <row r="11" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="L11" s="51" t="s">
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="L11" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="53"/>
-      <c r="R11" s="55" t="s">
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="58"/>
+      <c r="R11" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="57"/>
-      <c r="X11" s="55" t="s">
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="55"/>
+      <c r="X11" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="57"/>
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="55"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="45"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="46"/>
-      <c r="G12" s="24" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="28"/>
+      <c r="G12" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="16">
         <f>AVERAGE('Параметры транзисторов'!C3:D3)</f>
         <v>550</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="45"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="46"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="46"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="46"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="28"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="28"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="28"/>
     </row>
     <row r="13" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="45"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="46"/>
-      <c r="L13" s="47" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="28"/>
+      <c r="L13" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M13" s="37">
+      <c r="M13" s="25">
         <f>C4/'Параметры транзисторов'!E3</f>
         <v>0.20000000000000004</v>
       </c>
-      <c r="N13" s="37" t="s">
+      <c r="N13" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="46"/>
-      <c r="R13" s="65" t="s">
+      <c r="O13" s="28"/>
+      <c r="R13" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="S13" s="37">
+      <c r="S13" s="25">
         <f>O6/M32</f>
         <v>0.22270722907665585</v>
       </c>
-      <c r="T13" s="37"/>
-      <c r="U13" s="46"/>
-      <c r="W13" s="24" t="s">
+      <c r="T13" s="25"/>
+      <c r="U13" s="28"/>
+      <c r="W13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="X13" s="47" t="s">
+      <c r="X13" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="Y13" s="36">
+      <c r="Y13" s="24">
         <f>ROUND(50/C14,2)</f>
         <v>393.7</v>
       </c>
-      <c r="Z13" s="46" t="s">
+      <c r="Z13" s="28" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="25">
         <f>ROUND((15*'Параметры транзисторов'!F3*'1. Расчёт АГ'!C4)/(15*'1. Расчёт АГ'!C4*'Параметры транзисторов'!I3+'Параметры транзисторов'!F3),3)</f>
         <v>0.127</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="46"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="66">
+      <c r="E14" s="28"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="28"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="35">
         <f>S13</f>
         <v>0.22270722907665585</v>
       </c>
-      <c r="T14" s="37"/>
-      <c r="U14" s="46"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="50"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="28"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="32"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="25">
         <f>ROUND(C14*J25*(1-I23),4)</f>
         <v>4.9799999999999997E-2</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="46"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="46"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="46"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="28"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="28"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="28"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="45"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="46"/>
-      <c r="L16" s="47" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="28"/>
+      <c r="L16" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="M16" s="37">
+      <c r="M16" s="25">
         <f>1-(M13/(M13+C37))</f>
         <v>0.91374269005847952</v>
       </c>
-      <c r="N16" s="37" t="s">
+      <c r="N16" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="O16" s="46"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="50"/>
+      <c r="O16" s="28"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="32"/>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="25">
         <f>ROUND(AVERAGE('Параметры транзисторов'!C3:D3)/('1. Расчёт АГ'!C14*'Параметры транзисторов'!I3),0)</f>
         <v>72</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="46"/>
+      <c r="E17" s="28"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="28"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B18" s="45"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="46"/>
-      <c r="L18" s="47" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="28"/>
+      <c r="L18" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="M18" s="37">
+      <c r="M18" s="25">
         <f>ROUND(M16*0.3,2)</f>
         <v>0.27</v>
       </c>
-      <c r="N18" s="37"/>
-      <c r="O18" s="46"/>
-      <c r="X18" s="58" t="s">
+      <c r="N18" s="25"/>
+      <c r="O18" s="28"/>
+      <c r="X18" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="60"/>
+      <c r="Y18" s="60"/>
+      <c r="Z18" s="61"/>
     </row>
     <row r="19" spans="2:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="31">
         <f>-ATAN('0. Задание'!C4/'1. Расчёт АГ'!C17)</f>
         <v>-5.5498505245716832E-2</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="50"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="46"/>
-      <c r="R19" s="51" t="s">
+      <c r="E19" s="32"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="28"/>
+      <c r="R19" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="53"/>
-      <c r="X19" s="61"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="62"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="58"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="64"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L20" s="54" t="s">
+      <c r="L20" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="M20" s="49">
+      <c r="M20" s="31">
         <f>ROUND(C37/M18,2)</f>
         <v>7.85</v>
       </c>
-      <c r="N20" s="49" t="s">
+      <c r="N20" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="O20" s="50"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="46"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="46"/>
+      <c r="O20" s="32"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="28"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="28"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="R21" s="47" t="s">
+      <c r="R21" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="S21" s="37">
+      <c r="S21" s="25">
         <f>(C4*SQRT(1+(H12/C17)^2))/(C14*(1-I23))</f>
         <v>0.73086665259730854</v>
       </c>
-      <c r="T21" s="37" t="s">
+      <c r="T21" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="U21" s="46"/>
-      <c r="X21" s="47" t="s">
+      <c r="U21" s="28"/>
+      <c r="X21" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="Y21" s="37">
+      <c r="Y21" s="25">
         <f>M20+C26*Y13</f>
         <v>8.9759820000000001</v>
       </c>
-      <c r="Z21" s="46" t="s">
+      <c r="Z21" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="2:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="60"/>
-      <c r="I22" s="24" t="s">
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="I22" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="R22" s="48"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="50"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="49"/>
-      <c r="Z22" s="50"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="32"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="32"/>
     </row>
     <row r="23" spans="2:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="B23" s="63"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="64"/>
-      <c r="G23" s="34" t="s">
+      <c r="B23" s="71"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="G23" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="23">
         <v>80</v>
       </c>
-      <c r="I23" s="67">
+      <c r="I23" s="36">
         <f>ROUND(COS(RADIANS(H23)),2)</f>
         <v>0.17</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="16">
         <v>80</v>
       </c>
-      <c r="K23" s="24">
+      <c r="K23" s="16">
         <f>ROUND(COS(RADIANS(J23)),0)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="40" t="s">
+      <c r="L23" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="39"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="26"/>
     </row>
     <row r="24" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="61"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="62"/>
-      <c r="G24" s="34" t="s">
+      <c r="B24" s="62"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
+      <c r="G24" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="23">
         <f>0.286</f>
         <v>0.28599999999999998</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="16">
         <f>0.286</f>
         <v>0.28599999999999998</v>
       </c>
-      <c r="L24" s="43"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="44"/>
-      <c r="R24" s="51" t="s">
+      <c r="L24" s="68"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="70"/>
+      <c r="R24" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="53"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="58"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B25" s="45"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="46"/>
-      <c r="G25" s="34" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="28"/>
+      <c r="G25" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H25" s="23">
         <f>0.472</f>
         <v>0.47199999999999998</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="16">
         <f>0.472</f>
         <v>0.47199999999999998</v>
       </c>
-      <c r="L25" s="45"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="46"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="46"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="28"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="28"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="25">
         <f>H24*C4</f>
         <v>2.8600000000000001E-3</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="46"/>
-      <c r="G26" s="31"/>
-      <c r="L26" s="47" t="s">
+      <c r="E26" s="28"/>
+      <c r="G26" s="21"/>
+      <c r="L26" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="M26" s="37">
+      <c r="M26" s="25">
         <f>C37/C29</f>
         <v>448.86526860097672</v>
       </c>
-      <c r="N26" s="37" t="s">
+      <c r="N26" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="O26" s="46"/>
-      <c r="R26" s="47" t="s">
+      <c r="O26" s="28"/>
+      <c r="R26" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="S26" s="37">
+      <c r="S26" s="25">
         <f>'Параметры транзисторов'!G3+'1. Расчёт АГ'!S21*I23</f>
         <v>0.37424733094154244</v>
       </c>
-      <c r="T26" s="37" t="s">
+      <c r="T26" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="U26" s="46"/>
+      <c r="U26" s="28"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B27" s="47"/>
-      <c r="C27" s="37">
+      <c r="B27" s="29"/>
+      <c r="C27" s="25">
         <f>C26*1000</f>
         <v>2.8600000000000003</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="46"/>
-      <c r="G27" s="31"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="50"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="50"/>
+      <c r="E27" s="28"/>
+      <c r="G27" s="21"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="32"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="32"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B28" s="45"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="46"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="28"/>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="25">
         <f>H25*C4</f>
         <v>4.7200000000000002E-3</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="46"/>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" spans="2:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="48"/>
-      <c r="C30" s="49">
+      <c r="B30" s="30"/>
+      <c r="C30" s="31">
         <f>C29*1000</f>
         <v>4.7200000000000006</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="50"/>
-      <c r="L30" s="55" t="s">
+      <c r="E30" s="32"/>
+      <c r="L30" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="57"/>
-      <c r="R30" s="55" t="s">
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="55"/>
+      <c r="R30" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="57"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="55"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L31" s="45"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="46"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="46"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="28"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="28"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="L32" s="47" t="s">
+      <c r="L32" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="M32" s="37">
+      <c r="M32" s="25">
         <f>C26*ABS(M20)</f>
         <v>2.2450999999999999E-2</v>
       </c>
-      <c r="N32" s="37" t="s">
+      <c r="N32" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="O32" s="46"/>
-      <c r="R32" s="47" t="s">
+      <c r="O32" s="28"/>
+      <c r="R32" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="S32" s="37">
+      <c r="S32" s="25">
         <f>S21/C37</f>
         <v>0.34496906002592959</v>
       </c>
-      <c r="T32" s="37"/>
-      <c r="U32" s="46"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="28"/>
     </row>
     <row r="33" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="37">
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="67"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="25">
         <f>M32*1000</f>
         <v>22.451000000000001</v>
       </c>
-      <c r="N33" s="37" t="s">
+      <c r="N33" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="O33" s="46"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="50"/>
+      <c r="O33" s="28"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="32"/>
     </row>
     <row r="34" spans="2:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="43"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="44"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="46"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="70"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="28"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B35" s="45"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="46"/>
-      <c r="L35" s="47" t="s">
+      <c r="B35" s="27"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="28"/>
+      <c r="L35" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="M35" s="37">
+      <c r="M35" s="25">
         <f>M32-O6</f>
         <v>1.7450999999999998E-2</v>
       </c>
-      <c r="N35" s="37" t="s">
+      <c r="N35" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="O35" s="46"/>
+      <c r="O35" s="28"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B36" s="45"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="46"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="49">
+      <c r="B36" s="27"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="28"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="31">
         <f>M35*1000</f>
         <v>17.450999999999997</v>
       </c>
-      <c r="N36" s="49" t="s">
+      <c r="N36" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="O36" s="50"/>
+      <c r="O36" s="32"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="49">
+      <c r="C37" s="31">
         <f>2*O6/C29</f>
         <v>2.1186440677966103</v>
       </c>
-      <c r="D37" s="49" t="s">
+      <c r="D37" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="50"/>
+      <c r="E37" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B33:E34"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L23:O24"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="B22:E24"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B11:E11"/>
     <mergeCell ref="R11:U11"/>
     <mergeCell ref="R19:U19"/>
     <mergeCell ref="R24:U24"/>
     <mergeCell ref="R30:U30"/>
     <mergeCell ref="X11:Z11"/>
     <mergeCell ref="X18:Z19"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L23:O24"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="B22:E24"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B33:E34"/>
   </mergeCells>
   <conditionalFormatting sqref="Y21">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
       <formula>$C$7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2622,83 +2622,83 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="24"/>
-    <col min="3" max="3" width="10.6640625" style="24" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="24"/>
+    <col min="1" max="2" width="8.88671875" style="16"/>
+    <col min="3" max="3" width="10.6640625" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="72"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="74"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="79"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="39">
         <v>0.05</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="77" t="s">
+      <c r="E6" s="39"/>
+      <c r="F6" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="76">
+      <c r="G6" s="39">
         <v>0.127</v>
       </c>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="77" t="s">
+      <c r="I6" s="39"/>
+      <c r="J6" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="76">
+      <c r="K6" s="39">
         <f>(C6*(SQRT(1+('0. Задание'!C4/'1. Расчёт АГ'!C17)^2)))/('Пример расчёта'!G6*(1-'1. Расчёт АГ'!I23))</f>
         <v>0.47506973767300037</v>
       </c>
-      <c r="L6" s="78" t="s">
+      <c r="L6" s="41" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="48"/>
-      <c r="C7" s="49">
+      <c r="B7" s="30"/>
+      <c r="C7" s="31">
         <v>10.000000000000002</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="79" t="s">
+      <c r="E7" s="31"/>
+      <c r="F7" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="31">
         <v>4.9799999999999997E-2</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="50"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="32"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F8" s="31"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -2718,16 +2718,16 @@
       <c r="H11" s="85"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="16">
         <f>K6/((SQRT((2*'0. Задание'!C13)/'0. Задание'!C10)) - 'Пример расчёта'!C6*'1. Расчёт АГ'!H25)</f>
         <v>-23.078569630278302</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="24">
+      <c r="C15" s="16">
         <f>(K6)/((SQRT((2*'0. Задание'!C13)/'0. Задание'!C10))-C6*'1. Расчёт АГ'!H25)</f>
         <v>-23.078569630278302</v>
       </c>
